--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>购买方</t>
   </si>
@@ -39,34 +39,10 @@
     <t>总金额</t>
   </si>
   <si>
-    <t>凉山中科耳鼻喉专科医院有限公司</t>
+    <t>大写总金额</t>
   </si>
   <si>
-    <t>重庆弘侨恒诚医药股份有限公司</t>
-  </si>
-  <si>
-    <t>65409 18526 08263 16116</t>
-  </si>
-  <si>
-    <t>（小写）￥94223.50</t>
-  </si>
-  <si>
-    <t>60962 34458 18548 38170</t>
-  </si>
-  <si>
-    <t>（小写）￥88688.90</t>
-  </si>
-  <si>
-    <t>78745 11554 34578 90384</t>
-  </si>
-  <si>
-    <t>旬阳高新联合医院</t>
-  </si>
-  <si>
-    <t>重庆今瑜医药股份有限公司</t>
-  </si>
-  <si>
-    <t>81525 46566 1206700142</t>
+    <t>来自于哪个文件</t>
   </si>
 </sst>
 </file>
@@ -683,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,23 +1020,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="36.4424778761062" customWidth="1"/>
     <col min="3" max="3" width="24.1681415929204" customWidth="1"/>
     <col min="4" max="4" width="14.9469026548673" customWidth="1"/>
     <col min="5" max="5" width="19.9823008849558" customWidth="1"/>
-    <col min="6" max="6" width="34.1946902654867" customWidth="1"/>
-    <col min="7" max="7" width="34.2477876106195" customWidth="1"/>
+    <col min="6" max="6" width="32.2654867256637" customWidth="1"/>
+    <col min="7" max="7" width="25.8230088495575" customWidth="1"/>
+    <col min="8" max="8" width="69.4955752212389" customWidth="1"/>
+    <col min="9" max="9" width="15.4690265486726" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,98 +1060,30 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>50002000104</v>
-      </c>
-      <c r="D2">
-        <v>42714978</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44792</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>50002000104</v>
-      </c>
-      <c r="D3">
-        <v>42714979</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44792</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>50002000104</v>
-      </c>
-      <c r="D4">
-        <v>42714980</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44792</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>80869.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>50002100311</v>
-      </c>
-      <c r="D5">
-        <v>35777302</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44758</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-58.8</v>
-      </c>
+    </row>
+    <row r="2" spans="5:7">
+      <c r="E2" s="1"/>
+      <c r="F2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="1"/>
+      <c r="F4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="1"/>
+      <c r="F5"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="1"/>
@@ -1180,11 +1093,399 @@
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="1"/>
+      <c r="F8"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="1"/>
+      <c r="F9"/>
       <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>购买方</t>
   </si>
@@ -43,14 +43,361 @@
   </si>
   <si>
     <t>来自于哪个文件</t>
+  </si>
+  <si>
+    <t>三台同德医院</t>
+  </si>
+  <si>
+    <t>重庆弘侨恒诚医药股份有限公司</t>
+  </si>
+  <si>
+    <t>050002000104</t>
+  </si>
+  <si>
+    <t>42714974</t>
+  </si>
+  <si>
+    <t>2022年08月19日</t>
+  </si>
+  <si>
+    <t>7708591435 17563 01783</t>
+  </si>
+  <si>
+    <t>55266.20</t>
+  </si>
+  <si>
+    <t>伍万伍仟贰佰陆拾陆圆贰角整</t>
+  </si>
+  <si>
+    <t>三台同德医院42714974重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>中康（凉山）康复医院有限公司</t>
+  </si>
+  <si>
+    <t>重庆青山隐医药有限公司</t>
+  </si>
+  <si>
+    <t>050002000105</t>
+  </si>
+  <si>
+    <t>13002119</t>
+  </si>
+  <si>
+    <t>2022年08月11日</t>
+  </si>
+  <si>
+    <t>玖万玖仟伍佰捌拾柒圆玖角伍分</t>
+  </si>
+  <si>
+    <t>中康（凉山）康复医院有限公司13002119重庆青山隐医药有限公司.jpg</t>
+  </si>
+  <si>
+    <t>乐山德胜医院有限公司</t>
+  </si>
+  <si>
+    <t>重庆鑫奥医药有限公司</t>
+  </si>
+  <si>
+    <t>12605452</t>
+  </si>
+  <si>
+    <t>2022年08月09日</t>
+  </si>
+  <si>
+    <t>7832308535 38848 59020</t>
+  </si>
+  <si>
+    <t>4121.80</t>
+  </si>
+  <si>
+    <t>肆仟壹佰贰拾壹园捌角整</t>
+  </si>
+  <si>
+    <t>乐山德胜医院有限公司12605452重庆鑫奥医药有限公司.jpg</t>
+  </si>
+  <si>
+    <t>克拉玛依市友好医院有限责任公司</t>
+  </si>
+  <si>
+    <t>重庆今瑜医药股份有限公司</t>
+  </si>
+  <si>
+    <t>02603958</t>
+  </si>
+  <si>
+    <t>2022年08月08日</t>
+  </si>
+  <si>
+    <t>壹拾万贰仟柒佰零叁园整</t>
+  </si>
+  <si>
+    <t>克拉玛依市友好医院有限责任公司02603958重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>凉山中科耳鼻喉专科医院有限公司</t>
+  </si>
+  <si>
+    <t>42714978</t>
+  </si>
+  <si>
+    <t>65409 18526 08263 16116</t>
+  </si>
+  <si>
+    <t>94223.50</t>
+  </si>
+  <si>
+    <t>玖万肆仟贰佰贰拾参圆伍角整</t>
+  </si>
+  <si>
+    <t>凉山中科耳鼻喉专科医院有限公司42714978重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>42714979</t>
+  </si>
+  <si>
+    <t>60962 34458 18548 38170</t>
+  </si>
+  <si>
+    <t>88688.90</t>
+  </si>
+  <si>
+    <t>捌万捌仟陆佰捌拾捌圆玖角整</t>
+  </si>
+  <si>
+    <t>凉山中科耳鼻喉专科医院有限公司42714979重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>42714980</t>
+  </si>
+  <si>
+    <t>78745 11554 34578 90384</t>
+  </si>
+  <si>
+    <t>80869.60</t>
+  </si>
+  <si>
+    <t>捌万零捌佰陆拾玖圆陆角整</t>
+  </si>
+  <si>
+    <t>凉山中科耳鼻喉专科医院有限公司42714980重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>宁泸沽华医医院</t>
+  </si>
+  <si>
+    <t>42714982</t>
+  </si>
+  <si>
+    <t>47811 50846 21879 37755</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>叁佰荣拾伍圆整</t>
+  </si>
+  <si>
+    <t>宁泸沽华医医院42714982重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>宜宾大塔医院有限责任公司</t>
+  </si>
+  <si>
+    <t>重庆市华烨药业有限公司</t>
+  </si>
+  <si>
+    <t>11461868</t>
+  </si>
+  <si>
+    <t>2022年08月23日</t>
+  </si>
+  <si>
+    <t>74116 12440 36698 21584</t>
+  </si>
+  <si>
+    <t>108700.05</t>
+  </si>
+  <si>
+    <t>壹拾万捌仟柒佰圆零伍分</t>
+  </si>
+  <si>
+    <t>宜宾大塔医院有限责任公司11461868重庆市华烨药业有限公司.jpg</t>
+  </si>
+  <si>
+    <t>富顺西区医院管理有限公司</t>
+  </si>
+  <si>
+    <t>06595813</t>
+  </si>
+  <si>
+    <t>48001.95</t>
+  </si>
+  <si>
+    <t>肆万捌仟零壹圆玖角伍分</t>
+  </si>
+  <si>
+    <t>富顺西区医院管理有限公司06595813重庆弘侨恒诚医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>日略喀则藏南医院有限责任公司</t>
+  </si>
+  <si>
+    <t>13012428</t>
+  </si>
+  <si>
+    <t>2022年08月25日</t>
+  </si>
+  <si>
+    <t>74794 9951538703 03227</t>
+  </si>
+  <si>
+    <t>0875.50</t>
+  </si>
+  <si>
+    <t>壹拾万零捌佰柒拾伍圆伍角整</t>
+  </si>
+  <si>
+    <t>日略喀则藏南医院有限责任公司13012428重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>旬阳高新联合医院</t>
+  </si>
+  <si>
+    <t>050002100311</t>
+  </si>
+  <si>
+    <t>35777302</t>
+  </si>
+  <si>
+    <t>2022年07月16日</t>
+  </si>
+  <si>
+    <t>81525 46566 1206700142</t>
+  </si>
+  <si>
+    <t>-58.80</t>
+  </si>
+  <si>
+    <t>旬阳高新联合医院35777302重庆今瑜医药股份有限公司PDF.jpg</t>
+  </si>
+  <si>
+    <t>江油市杨氏中医医院有限公司</t>
+  </si>
+  <si>
+    <t>贵州奇通医药销售有限公司</t>
+  </si>
+  <si>
+    <t>052002100105</t>
+  </si>
+  <si>
+    <t>01923670</t>
+  </si>
+  <si>
+    <t>2022年08月10日</t>
+  </si>
+  <si>
+    <t>53367729650818808538</t>
+  </si>
+  <si>
+    <t>89727.60</t>
+  </si>
+  <si>
+    <t>捌万玖仟柒佰贰拾柒圆陆角整</t>
+  </si>
+  <si>
+    <t>江油市杨氏中医医院有限公司01923670贵州奇通医药销售有限公司.jpg</t>
+  </si>
+  <si>
+    <t>衡水国承中西医结合医院</t>
+  </si>
+  <si>
+    <t>13012439</t>
+  </si>
+  <si>
+    <t>53997 80416 10102 19894</t>
+  </si>
+  <si>
+    <t>112078.70</t>
+  </si>
+  <si>
+    <t>壹拾壹万贰仟零柴拾圆柒角整</t>
+  </si>
+  <si>
+    <t>衡水国承中西医结合医院13012439重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>重庆市万州区万寿医院</t>
+  </si>
+  <si>
+    <t>广西天下康药业有限责任公司</t>
+  </si>
+  <si>
+    <t>045002100105</t>
+  </si>
+  <si>
+    <t>07270597</t>
+  </si>
+  <si>
+    <t>2022年08月15日</t>
+  </si>
+  <si>
+    <t>59662 19125 23331 71041</t>
+  </si>
+  <si>
+    <t>2019.40</t>
+  </si>
+  <si>
+    <t>贰仟零壹拾玖圆肆角整</t>
+  </si>
+  <si>
+    <t>重庆市万州区万寿医院07270597广西天下康药业有限责任公司.jpg</t>
+  </si>
+  <si>
+    <t>重庆齐悦安康医院股份有限公司</t>
+  </si>
+  <si>
+    <t>广西天下药业有限责任公司</t>
+  </si>
+  <si>
+    <t>07270609</t>
+  </si>
+  <si>
+    <t>47933 91370 24636 74985</t>
+  </si>
+  <si>
+    <t>柒万叁仟叁佰捌拾圆陆角整</t>
+  </si>
+  <si>
+    <t>重庆齐悦安康医院股份有限公司07270609广西天下药业有限责任公司.jpg</t>
+  </si>
+  <si>
+    <t>阜宁城西医院</t>
+  </si>
+  <si>
+    <t>13012008</t>
+  </si>
+  <si>
+    <t>2022年08月12日</t>
+  </si>
+  <si>
+    <t>49793 54009 25368 17896</t>
+  </si>
+  <si>
+    <t>53257.00</t>
+  </si>
+  <si>
+    <t>伍万参仟贰佰伍拾柒圆整</t>
+  </si>
+  <si>
+    <t>阜宁城西医院13012008重庆今瑜医药股份有限公司.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -659,17 +1006,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1367,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1034,7 +1378,7 @@
     <col min="5" max="5" width="19.9823008849558" customWidth="1"/>
     <col min="6" max="6" width="32.2654867256637" customWidth="1"/>
     <col min="7" max="7" width="25.8230088495575" customWidth="1"/>
-    <col min="8" max="8" width="69.4955752212389" customWidth="1"/>
+    <col min="8" max="8" width="30.9380530973451" customWidth="1"/>
     <col min="9" max="9" width="15.4690265486726" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,425 +1411,836 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="5:7">
-      <c r="E2" s="1"/>
-      <c r="F2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="1"/>
-      <c r="F4"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="1"/>
-      <c r="F5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" s="1"/>
-      <c r="F8"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="1"/>
-      <c r="F9"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="1"/>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="1"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="1"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="1"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
   <si>
     <t>购买方</t>
   </si>
@@ -391,6 +391,75 @@
   </si>
   <si>
     <t>阜宁城西医院13012008重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>成县精诚骨科医院</t>
+  </si>
+  <si>
+    <t>12343781</t>
+  </si>
+  <si>
+    <t>2022年09月06日</t>
+  </si>
+  <si>
+    <t>58488.40</t>
+  </si>
+  <si>
+    <t>伍万捌仟肆佰捌拾捌圆肆角整</t>
+  </si>
+  <si>
+    <t>成县精诚骨科医院12343781重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>桐梓北大门医院</t>
+  </si>
+  <si>
+    <t>12343777</t>
+  </si>
+  <si>
+    <t>41080.80</t>
+  </si>
+  <si>
+    <t>肆万世仟零捌拾圆捌角整</t>
+  </si>
+  <si>
+    <t>桐梓北大门医院12343777重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>熟县红十字医院</t>
+  </si>
+  <si>
+    <t>12343789</t>
+  </si>
+  <si>
+    <t>04494 2252050139 88114</t>
+  </si>
+  <si>
+    <t>58666.00</t>
+  </si>
+  <si>
+    <t>伍万捌仟陆佰随拾随圆整</t>
+  </si>
+  <si>
+    <t>熟县红十字医院12343789重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>蓝田友谊医院</t>
+  </si>
+  <si>
+    <t>鑫庆今瑜医药股份有限公司</t>
+  </si>
+  <si>
+    <t>12343788</t>
+  </si>
+  <si>
+    <t>17738 832723884155765</t>
+  </si>
+  <si>
+    <t>伍仟伍佰贰肆圆整</t>
+  </si>
+  <si>
+    <t>蓝田友谊医院12343788鑫庆今瑜医药股份有限公司.jpg</t>
   </si>
 </sst>
 </file>
@@ -1886,17 +1955,111 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="2"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>购买方</t>
   </si>
@@ -1075,14 +1075,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,39 +2058,111 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>购买方</t>
   </si>
@@ -2164,45 +2164,111 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
   <si>
     <t>购买方</t>
   </si>
@@ -2270,45 +2270,111 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="164">
   <si>
     <t>购买方</t>
   </si>
@@ -460,6 +460,54 @@
   </si>
   <si>
     <t>蓝田友谊医院12343788鑫庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>没</t>
+  </si>
+  <si>
+    <t>12343776</t>
+  </si>
+  <si>
+    <t>2022年08月29日</t>
+  </si>
+  <si>
+    <t>-21420.00</t>
+  </si>
+  <si>
+    <t>没12343776重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>12343778</t>
+  </si>
+  <si>
+    <t>77570.00</t>
+  </si>
+  <si>
+    <t>渠万柒仟伍佰荣拾圆整</t>
+  </si>
+  <si>
+    <t>没12343778重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>12343779</t>
+  </si>
+  <si>
+    <t>66855.80</t>
+  </si>
+  <si>
+    <t>陆万陆仟捌佰伍拾伍圆捌角整</t>
+  </si>
+  <si>
+    <t>没12343779重庆今瑜医药股份有限公司.jpg</t>
+  </si>
+  <si>
+    <t>12343783</t>
+  </si>
+  <si>
+    <t>捌万荣仟零叁拾肆圆整</t>
+  </si>
+  <si>
+    <t>没12343783重庆今瑜医药股份有限公司.jpg</t>
   </si>
 </sst>
 </file>
@@ -2376,85 +2424,215 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>

--- a/allData.xlsx
+++ b/allData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="164">
   <si>
     <t>购买方</t>
   </si>
@@ -2634,85 +2634,215 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1"/>
